--- a/biology/Botanique/Alchémille/Alchémille.xlsx
+++ b/biology/Botanique/Alchémille/Alchémille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille</t>
+          <t>Alchémille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alchemilla
 Alchemilla (Les Alchémilles Écouter) est un genre de plantes à fleurs de la famille des Rosacées. Ce sont des plantes herbacées. Le nombre d'espèces est mal connu, variant considérablement suivant les auteurs et le traitement apporté au genre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille</t>
+          <t>Alchémille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes vivaces à feuilles glabres, duveteuses ou soyeuses, palmatilobées à palmatiséquées, à bord denté. Les fleurs sont petites, sans pétales, jaune verdâtre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille</t>
+          <t>Alchémille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Alchémilles sont des plantes dites apomictiques, c'est-à-dire qu'elles sont capables de produire des graines sans fécondation[3] ; les descendants s'apparentant alors à des clones. De ce fait, le genre comporte un grand nombre de lignées clonales formant des micro-espèces, dont la plupart sont délicates à identifier sur le terrain.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Alchémilles sont des plantes dites apomictiques, c'est-à-dire qu'elles sont capables de produire des graines sans fécondation ; les descendants s'apparentant alors à des clones. De ce fait, le genre comporte un grand nombre de lignées clonales formant des micro-espèces, dont la plupart sont délicates à identifier sur le terrain.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille</t>
+          <t>Alchémille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrages les plus récents donnent, pour la France, une soixantaine d'espèces reconnaissables sur critères morphologiques, tout en mettant en garde sur l'existence de micro-espèces présentant des différences trop subtiles pour être appréciées en conditions naturelles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrages les plus récents donnent, pour la France, une soixantaine d'espèces reconnaissables sur critères morphologiques, tout en mettant en garde sur l'existence de micro-espèces présentant des différences trop subtiles pour être appréciées en conditions naturelles.
 La petite rosacée appelée alchémille des champs (Aphanes arvensis), commune dans presque toute la France, fait exception en appartenant au genre Aphanes.
 </t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille</t>
+          <t>Alchémille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Liste des sous-espèces, variétés et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 septembre 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017) :
 Alchemilla abchasica Buser
 Alchemilla abramovii Czkalov
 Alchemilla abyssinica Fres.
@@ -1336,7 +1356,7 @@
 Alchemilla ziganadagensis B. Pawl
 Alchemilla zimoenkensis Czkalov
 Alchemilla zmudae Pawl.
-Selon GRIN            (27 septembre 2017)[5] :
+Selon GRIN            (27 septembre 2017) :
 Alchemilla alpina L.
 Alchemilla arvensis (L.) Scop. - Alchémille des champs
 Alchemilla conjuncta Bab.
@@ -1348,7 +1368,7 @@
 Alchemilla sericata Rchb.
 Alchemilla splendens Christ ex Favrat
 Alchemilla xanthochlora Rothm.
-Selon ITIS      (27 septembre 2017)[6] :
+Selon ITIS      (27 septembre 2017) :
 Alchemilla alpina L.
 Alchemilla filicaulis Buser
 Alchemilla glabra Neygenf.
@@ -1364,7 +1384,7 @@
 Alchemilla venosula Buser
 Alchemilla wichurae (Buser) Stefansson
 Alchemilla xanthochlora Rothm.
-Selon NCBI  (27 septembre 2017)[7] :
+Selon NCBI  (27 septembre 2017) :
 Alchemilla abyssinica
 Alchemilla acutiloba
 Alchemilla alpina
@@ -1478,7 +1498,7 @@
 Alchemilla wichurae
 Alchemilla woodii
 Alchemilla xanthochlora
-Selon The Plant List            (27 septembre 2017)[8] :
+Selon The Plant List            (27 septembre 2017) :
 Alchemilla abchasica Buser
 Alchemilla achtarowii Pawl&gt;l.
 Alchemilla acrodon S.E.Fr”hner
@@ -1713,7 +1733,7 @@
 Alchemilla glomerulans Buser
 Alchemilla glyphodonta Juz.
 Alchemilla goloskokovii Juz.
-Alchem</t>
+Alchemilla gorcensis </t>
         </is>
       </c>
     </row>
